--- a/CH-123 Custom Grouping.xlsx
+++ b/CH-123 Custom Grouping.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A7F7F-023B-41D1-B0A7-99AC926D9817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78004155-193A-44A2-9E04-E90FC4561464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Question</t>
   </si>
@@ -860,11 +884,38 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="524" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{CDB1F364-D629-48D3-84F0-BA8B59707550}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1253,4 +1304,436 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024321D9-7150-4DCC-8957-9558072A52D9}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="E1"/>
+      <c r="G1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="20">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>761</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="20">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="23">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>730</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="20">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="23">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16">
+        <v>385</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="20">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="20">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="20">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="20">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="20">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="20">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="20">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="21">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="22">
+        <v>122</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="21">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="22">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="21">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="22">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="21">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="22">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="21">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="22">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="21">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="22">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="21">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="22">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="21">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="22">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="21">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="22">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="21">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="22">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="13">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="14">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="14">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="13">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="14">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="17">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="18">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="str" cm="1">
+        <f t="array" ref="B29:C32">_xlfn.VSTACK(
+    {"Group","Total Sales"},
+    _xlfn.HSTACK(
+        {1;2;3},
+        _xlfn.BYROW(
+            _xlfn.WRAPROWS(C3:C26, 10, 0),
+            _xleta.SUM
+        )
+    )
+)</f>
+        <v>Group</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Total Sales</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-123 Custom Grouping.xlsx
+++ b/CH-123 Custom Grouping.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78004155-193A-44A2-9E04-E90FC4561464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4E7761-C2F1-4274-9666-EF34D42CEFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt2'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Question</t>
   </si>
@@ -886,7 +888,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="524" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="562" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1310,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024321D9-7150-4DCC-8957-9558072A52D9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,4 +1738,425 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9BAAA6-CD62-40D2-962C-C35A4704C4BD}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="E1"/>
+      <c r="G1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="20">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>761</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="20">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="23">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>730</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="20">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="23">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16">
+        <v>385</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="20">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="20">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="20">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="20">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="20">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="20">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="20">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="21">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="22">
+        <v>122</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="21">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="22">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="21">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="22">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="21">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="22">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="21">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="22">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="21">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="22">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="21">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="22">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="21">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="22">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="21">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="22">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="21">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="22">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="13">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="14">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="14">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="13">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="14">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="17">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="18">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" cm="1">
+        <f t="array" ref="B29:C31">_xlfn.GROUPBY(
+    CEILING(DAY(B3:B26) / 10, 1),
+    C3:C26,
+    _xleta.SUM,
+    ,
+    0
+)</f>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-123 Custom Grouping.xlsx
+++ b/CH-123 Custom Grouping.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4E7761-C2F1-4274-9666-EF34D42CEFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCA59E3-0FC1-485C-9A0A-D9A9B3C4DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
     <sheet name="Alt2" sheetId="4" r:id="rId3"/>
+    <sheet name="Original (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt2'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Original (2)'!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>Question</t>
   </si>
@@ -904,6 +906,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1312,8 +1317,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024321D9-7150-4DCC-8957-9558072A52D9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="E1"/>
+      <c r="G1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="20">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>761</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="20">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="23">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>730</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="20">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="23">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16">
+        <v>385</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="20">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="20">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="20">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="20">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="20">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="20">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="20">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="21">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="22">
+        <v>122</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="21">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="22">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="21">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="22">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="21">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="22">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="21">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="22">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="21">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="22">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="21">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="22">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="21">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="22">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="21">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="22">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="21">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="22">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="13">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="14">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="14">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="13">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="14">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="17">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="18">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="str" cm="1">
+        <f t="array" ref="B29:C32">_xlfn.VSTACK(
+    {"Group","Total Sales"},
+    _xlfn.HSTACK(
+        {1;2;3},
+        _xlfn.BYROW(
+            _xlfn.WRAPROWS(C3:C26, 10, 0),
+            _xleta.SUM
+        )
+    )
+)</f>
+        <v>Group</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Total Sales</v>
+      </c>
+      <c r="G29" s="6" t="str" cm="1">
+        <f t="array" ref="G29:H32">_xlfn.LET(
+_xlpm.d,_xlfn.BYROW(_xlfn.WRAPROWS(C3:C26,10,0),_xleta.SUM),
+_xlfn.VSTACK({"Group","Total Sales"},_xlfn.HSTACK({1;2;3},_xlpm.d))
+)</f>
+        <v>Group</v>
+      </c>
+      <c r="H29" s="15" t="str">
+        <v>Total Sales</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>761</v>
+      </c>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>730</v>
+      </c>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="16">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>385</v>
+      </c>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="16">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9BAAA6-CD62-40D2-962C-C35A4704C4BD}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,44 +2155,33 @@
       <c r="D26" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="str" cm="1">
-        <f t="array" ref="B29:C32">_xlfn.VSTACK(
-    {"Group","Total Sales"},
-    _xlfn.HSTACK(
-        {1;2;3},
-        _xlfn.BYROW(
-            _xlfn.WRAPROWS(C3:C26, 10, 0),
-            _xleta.SUM
-        )
-    )
+      <c r="B29" s="4" cm="1">
+        <f t="array" ref="B29:C31">_xlfn.GROUPBY(
+    CEILING(DAY(B3:B26) / 10, 1),
+    C3:C26,
+    _xleta.SUM,
+    ,
+    0
 )</f>
-        <v>Group</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Total Sales</v>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="4">
-        <v>3</v>
-      </c>
-      <c r="C32">
         <v>385</v>
       </c>
     </row>
@@ -1740,12 +2195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9BAAA6-CD62-40D2-962C-C35A4704C4BD}">
-  <dimension ref="A1:N31"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A358D79B-6569-4ACB-A563-1D8BF6250203}">
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,37 +2575,6 @@
       </c>
       <c r="D26" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" cm="1">
-        <f t="array" ref="B29:C31">_xlfn.GROUPBY(
-    CEILING(DAY(B3:B26) / 10, 1),
-    C3:C26,
-    _xleta.SUM,
-    ,
-    0
-)</f>
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>385</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>

--- a/CH-123 Custom Grouping.xlsx
+++ b/CH-123 Custom Grouping.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCA59E3-0FC1-485C-9A0A-D9A9B3C4DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28F757-50E7-493E-8278-91F9F2465538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
     <sheet name="Alt2" sheetId="4" r:id="rId3"/>
-    <sheet name="Original (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="EDA" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt2'!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Original (2)'!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -89,11 +89,17 @@
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7248074411692474368/</t>
   </si>
+  <si>
+    <t>Alternative 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;\-0;0;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,6 +371,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024321D9-7150-4DCC-8957-9558072A52D9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,16 +1718,6 @@
       <c r="C29" t="str">
         <v>Total Sales</v>
       </c>
-      <c r="G29" s="6" t="str" cm="1">
-        <f t="array" ref="G29:H32">_xlfn.LET(
-_xlpm.d,_xlfn.BYROW(_xlfn.WRAPROWS(C3:C26,10,0),_xleta.SUM),
-_xlfn.VSTACK({"Group","Total Sales"},_xlfn.HSTACK({1;2;3},_xlpm.d))
-)</f>
-        <v>Group</v>
-      </c>
-      <c r="H29" s="15" t="str">
-        <v>Total Sales</v>
-      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
@@ -1729,12 +1726,6 @@
       <c r="C30">
         <v>761</v>
       </c>
-      <c r="G30" s="23">
-        <v>1</v>
-      </c>
-      <c r="H30" s="16">
-        <v>761</v>
-      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1743,24 +1734,12 @@
       <c r="C31">
         <v>730</v>
       </c>
-      <c r="G31" s="23">
-        <v>2</v>
-      </c>
-      <c r="H31" s="16">
-        <v>730</v>
-      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>385</v>
-      </c>
-      <c r="G32" s="23">
-        <v>3</v>
-      </c>
-      <c r="H32" s="16">
         <v>385</v>
       </c>
     </row>
@@ -2197,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A358D79B-6569-4ACB-A563-1D8BF6250203}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,6 +2189,7 @@
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="4.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2574,6 +2554,71 @@
         <v>105</v>
       </c>
       <c r="D26" s="9"/>
+      <c r="G26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="6" t="str" cm="1">
+        <f t="array" ref="G28:H31">_xlfn.LET(
+_xlpm.d,_xlfn.BYROW(_xlfn.WRAPROWS('Alt1'!C3:C26,10,0),_xleta.SUM),
+_xlfn.VSTACK({"Group","Total Sales"},_xlfn.HSTACK({1;2;3},_xlpm.d))
+)</f>
+        <v>Group</v>
+      </c>
+      <c r="H28" s="15" t="str">
+        <v>Total Sales</v>
+      </c>
+      <c r="J28" s="6" t="str" cm="1">
+        <f t="array" ref="J28:K31">_xlfn.VSTACK({"Group","Total Sales"},_xlfn.GROUPBY(QUOTIENT(B3:B26-$B$3,10),C3:C26,_xleta.SUM,,0))</f>
+        <v>Group</v>
+      </c>
+      <c r="K28" s="15" t="str">
+        <v>Total Sales</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G29" s="23">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>761</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="23">
+        <v>2</v>
+      </c>
+      <c r="H30" s="16">
+        <v>730</v>
+      </c>
+      <c r="J30" s="23">
+        <v>1</v>
+      </c>
+      <c r="K30" s="16">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="23">
+        <v>3</v>
+      </c>
+      <c r="H31" s="16">
+        <v>385</v>
+      </c>
+      <c r="J31" s="23">
+        <v>2</v>
+      </c>
+      <c r="K31" s="16">
+        <v>385</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CH-123 Custom Grouping.xlsx
+++ b/CH-123 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28F757-50E7-493E-8278-91F9F2465538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDFF068-0CD4-4CA4-8C3D-83E36172A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Alternative 1</t>
+  </si>
+  <si>
+    <t>Alternative 2</t>
+  </si>
+  <si>
+    <t>This solution is intuitive. Alt 2 would be my go-to.</t>
   </si>
 </sst>
 </file>
@@ -2178,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A358D79B-6569-4ACB-A563-1D8BF6250203}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2557,7 +2563,12 @@
       <c r="G26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G28" s="6" t="str" cm="1">
